--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667942.03343603</v>
+        <v>5667942.033436031</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,55 +905,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,31 +1649,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1974,13 +1974,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8.583694061601907</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>123.7922091700869</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>72.97781619843659</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -2843,13 +2843,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>51.72215467797748</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X30" t="n">
-        <v>97.88959590290915</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,67 +3032,67 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>9.234466016111892</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>100.2757381414389</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>19.96124337932748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,70 +3263,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>26.18187459043808</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>29.90723668598428</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>29.1427070647979</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,61 +3749,61 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.197928092376224</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>100.3796369526212</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>68.31015748716329</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4150,49 +4150,49 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U2" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U2" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
         <v>506.1786963984129</v>
@@ -4370,7 +4370,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4413,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4841,13 +4841,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5124,16 +5124,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
         <v>41.77557929797318</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5361,13 +5361,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5689,28 +5689,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>166.6823665696193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>27.95154115223485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>156.0631229240681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>156.0631229240681</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6172,22 +6172,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>492.3847606029253</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="C27" t="n">
-        <v>492.3847606029253</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>492.3847606029253</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>492.3847606029253</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>345.8502026298103</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>207.1193772124258</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>93.7502416200051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X27" t="n">
-        <v>492.3847606029253</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y27" t="n">
-        <v>492.3847606029253</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H29" t="n">
         <v>231.8830517671884</v>
@@ -6491,22 +6491,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>489.203140025706</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>314.750110744579</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6546,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6579,13 +6579,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X30" t="n">
-        <v>865.178775810728</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y30" t="n">
-        <v>657.4184770457741</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6640,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.869396638348</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C33" t="n">
-        <v>210.869396638348</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D33" t="n">
-        <v>210.869396638348</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E33" t="n">
-        <v>210.869396638348</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>467.120814772626</v>
       </c>
       <c r="V33" t="n">
-        <v>454.3181732824481</v>
+        <v>467.120814772626</v>
       </c>
       <c r="W33" t="n">
-        <v>210.869396638348</v>
+        <v>467.120814772626</v>
       </c>
       <c r="X33" t="n">
-        <v>210.869396638348</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="Y33" t="n">
-        <v>210.869396638348</v>
+        <v>259.2693145670932</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6901,7 +6901,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6965,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.47235360622864</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C39" t="n">
-        <v>49.47235360622864</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D39" t="n">
-        <v>49.47235360622864</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E39" t="n">
-        <v>49.47235360622864</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.47235360622864</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>156.0631229240681</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K43" t="n">
         <v>19.28114311021272</v>
@@ -7585,34 +7585,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>376.1934816808115</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V44" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>274.7999090013961</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>156.0631229240681</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7840,16 +7840,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,16 +8061,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8784,7 +8784,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,10 +11151,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,10 +11391,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344606</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23470,7 +23470,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>264.2850375838066</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,7 +23513,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,31 +23537,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,19 +23814,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23862,13 +23862,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24011,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>103.6517501748946</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,22 +24257,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24288,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>12.03090554892191</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24494,10 +24494,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>48.9162898182288</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,16 +24531,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>16.41881665297849</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24646,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>305.6710867513173</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,13 +24731,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>199.623498229859</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24819,10 +24819,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X30" t="n">
-        <v>107.8833893005683</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24862,7 +24862,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,16 +24920,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24959,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,13 +24999,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>44.79347425194503</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,19 +25047,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>205.9801387016473</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25205,16 +25205,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>146.5266243978776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,10 +25287,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25439,19 +25439,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>142.8012623023315</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>115.926505328586</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,13 +25524,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25676,7 +25676,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>156.4471523630247</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25807,10 +25807,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25825,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>150.9660159552153</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="C2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.36989223279</v>
-      </c>
       <c r="E2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="F2" t="n">
         <v>91388.36989223285</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="G2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="O2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="L2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>91388.36989223279</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="C4" t="n">
         <v>179.5324977039669</v>
@@ -26451,7 +26451,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="O4" t="n">
         <v>179.5324977039669</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078056</v>
+        <v>-37841.86290078059</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076718</v>
+        <v>42927.56863076721</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076715</v>
+        <v>42927.56863076717</v>
       </c>
       <c r="E6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="F6" t="n">
         <v>76555.16863076721</v>
-      </c>
-      <c r="F6" t="n">
-        <v>76555.16863076715</v>
       </c>
       <c r="G6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="J6" t="n">
         <v>13495.22603166094</v>
       </c>
       <c r="K6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="N6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="O6" t="n">
         <v>76555.16863076718</v>
       </c>
-      <c r="L6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76555.16863076719</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76555.16863076719</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>76555.16863076715</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76555.16863076719</v>
       </c>
     </row>
   </sheetData>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,19 +35255,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35492,10 +35492,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35504,7 +35504,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35659,7 +35659,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35972,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,10 +37871,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,10 +38111,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840487</v>
+        <v>440041.0145983153</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1151,7 +1153,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="W14" t="n">
         <v>241.0142888776591</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1974,13 +1976,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>178.6958490491743</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.4257255954092</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,43 +2253,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2561,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>123.7922091700869</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>88.89269917859714</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>37.18582309281555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2974,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,25 +3034,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.59515906968671</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3162,16 +3164,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>19.96124337932748</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3408,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3421,55 +3423,55 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.809496073036132</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3521,7 +3523,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>29.90723668598428</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,19 +3593,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>25.15893808352689</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3667,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3825,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>1.197928092376224</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>84.47684708846108</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3919,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>68.31015748716329</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4366,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4412,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
         <v>234.810827406191</v>
@@ -4419,7 +4421,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4749,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4790,13 +4792,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4890,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5127,10 +5129,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
         <v>894.6625969973069</v>
@@ -5185,16 +5187,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>274.7999090013961</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5363,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M15" t="n">
         <v>473.4149733950735</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X20" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T20" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U20" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V20" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>216.071404167611</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>216.071404167611</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>216.071404167611</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>216.071404167611</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>216.071404167611</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6075,13 +6077,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,22 +6095,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6172,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.0779112883388</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>521.0535470733607</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>313.2932483084068</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6406,28 +6408,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.0282188019862</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>926.4957180431458</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X30" t="n">
-        <v>718.6442178376129</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.883919072659</v>
+        <v>109.8523314442283</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>954.7294120600181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>259.2693145670932</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C33" t="n">
-        <v>259.2693145670932</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D33" t="n">
-        <v>110.334904905842</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E33" t="n">
-        <v>110.334904905842</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H33" t="n">
         <v>110.334904905842</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>467.120814772626</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>467.120814772626</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>467.120814772626</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X33" t="n">
-        <v>259.2693145670932</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y33" t="n">
-        <v>259.2693145670932</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="34">
@@ -6841,10 +6843,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -7020,40 +7022,40 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7159,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>756.2968567456824</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="C39" t="n">
-        <v>726.0875267598396</v>
+        <v>353.6202092009445</v>
       </c>
       <c r="D39" t="n">
-        <v>577.1531170985884</v>
+        <v>204.6857995396932</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>45.44834453423772</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7284,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y39" t="n">
-        <v>756.2968567456824</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="40">
@@ -7315,10 +7317,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7448,13 +7450,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C42" t="n">
-        <v>170.1797138003873</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D42" t="n">
-        <v>21.24530413913604</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E42" t="n">
         <v>20.03527576299844</v>
@@ -7503,7 +7505,7 @@
         <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7527,13 +7529,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>878.7270069364331</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
         <v>19.28114311021272</v>
@@ -7585,34 +7587,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>726.8416594126254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7828,16 +7830,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10433,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11151,10 +11153,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P42" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22547,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22604,13 +22606,13 @@
         <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22963,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23039,7 +23041,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23425,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>34.50357226344606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>96.87776287405225</v>
       </c>
       <c r="W14" t="n">
         <v>108.226679839754</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23862,13 +23864,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>31.91779156780139</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>135.0341266295844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24257,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24333,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24449,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24494,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>48.9162898182288</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>48.45081798461349</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,13 +24581,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>305.6710867513173</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24728,16 +24730,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>67.97960400472553</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>214.5091600681041</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24862,7 +24864,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>140.6346519250378</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24999,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>97.64028516680975</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>205.9801387016473</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25208,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25296,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>380.1208739992256</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25409,7 +25411,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>142.8012623023315</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,19 +25481,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>119.910274309857</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25555,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25713,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.4471523630247</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>167.2181360724585</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25807,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>104.3983415011524</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26080,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="E2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="C2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223285</v>
       </c>
       <c r="G2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.36989223277</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
         <v>179.5324977039669</v>
@@ -26451,13 +26453,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078059</v>
+        <v>-37841.86290078056</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076721</v>
+        <v>42927.56863076716</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076717</v>
+        <v>42927.56863076718</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076721</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="G6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="I6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166094</v>
+        <v>13495.22603166095</v>
       </c>
       <c r="K6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="L6" t="n">
         <v>76555.16863076716</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>76555.16863076719</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
+        <v>76555.16863076713</v>
+      </c>
+      <c r="O6" t="n">
+        <v>76555.16863076715</v>
+      </c>
+      <c r="P6" t="n">
         <v>76555.16863076716</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76555.16863076716</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76555.16863076715</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35258,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35495,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37871,10 +37873,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P42" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983153</v>
+        <v>337788.7049113787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -661,70 +661,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>12.94771755361648</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,34 +837,34 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>102.9664640366239</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="12">
@@ -1451,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>230.8744955960827</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>239.0849317301652</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,61 +1846,61 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>58.39471844666272</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>178.6958490491743</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="19">
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,20 +2083,20 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4257255954092</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="24">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2563,61 +2563,61 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>88.89269917859714</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2712,58 +2712,58 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="31">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,64 +3037,64 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.59515906968671</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="34">
@@ -3201,40 +3201,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>63.88882306452232</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>50.46697834767995</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>25.15893808352689</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,52 +3675,52 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,20 +3745,20 @@
         <v>212.2853856434421</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>84.47684708846108</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>135.4141600157168</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4421,7 +4421,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G12" t="n">
         <v>223.7040404982626</v>
@@ -5135,10 +5135,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5153,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="13">
@@ -5184,22 +5184,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5363,10 +5363,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
         <v>473.4149733950735</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5463,25 +5463,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5606,10 +5606,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>508.9694238887622</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>508.9694238887622</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>508.9694238887622</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>508.9694238887622</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="C20" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="D20" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="E20" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>216.071404167611</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>216.071404167611</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>216.071404167611</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>216.071404167611</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>216.071404167611</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
         <v>725.4530095217538</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>627.7355178317791</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>384.2867411876791</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>384.2867411876791</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5937,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6141,7 +6141,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>109.8523314442283</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>109.8523314442283</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>109.8523314442283</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>109.8523314442283</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>109.8523314442283</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>109.8523314442283</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6654,13 +6654,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,19 +7043,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>83.81530782185143</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>528.0732384820715</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>353.6202092009445</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>204.6857995396932</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>45.44834453423772</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
         <v>20.03527576299844</v>
@@ -7259,13 +7259,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>735.8335372470253</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>735.8335372470253</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>528.0732384820715</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7447,13 +7447,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
         <v>720.6083788665362</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>878.7270069364331</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7769,10 +7769,10 @@
         <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7830,13 +7830,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -8069,10 +8069,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8783,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9254,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,16 +10907,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>360.302996258564</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22549,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>132.1214948397674</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22691,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,16 +22916,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>148.7285191242957</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="12">
@@ -23339,19 +23339,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,10 +23554,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>96.87776287405225</v>
+        <v>233.3417714764288</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>12.61005143075437</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23734,28 +23734,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>337.6653060427309</v>
+        <v>281.0800836691044</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>21.46887964564732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="19">
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,7 +23971,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>31.91779156780139</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24265,16 +24265,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="24">
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24381,10 +24381,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>48.45081798461349</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>67.97960400472553</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="31">
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>210.8693737747013</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25013,10 +25013,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>97.64028516680975</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>256.7375800297467</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>141.8841621389552</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,28 +25393,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>298.773990369733</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>119.910274309857</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,19 +25633,19 @@
         <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25687,7 +25687,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,13 +25763,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>167.2181360724585</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817688</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>70.35882518776063</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="C2" t="n">
         <v>91388.3698922328</v>
@@ -26322,37 +26322,37 @@
         <v>91388.36989223282</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="F2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="G2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.36989223282</v>
-      </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
         <v>91388.3698922328</v>
@@ -26459,7 +26459,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078056</v>
+        <v>-50059.87352082101</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076716</v>
+        <v>30709.5580107267</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076718</v>
+        <v>30709.55801072671</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072672</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166095</v>
+        <v>1277.215411620513</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072672</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076713</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.1580107267</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34789,10 +34789,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35974,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38107,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337788.7049113787</v>
+        <v>429790.5534944769</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.94771755361648</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>185.0895822840095</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="E5" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>102.9664640366239</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2131257424249</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>134.667568689459</v>
+        <v>164.0838800822113</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>33.19332575419072</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1536,61 +1536,61 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,11 +1609,11 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1621,55 +1621,55 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>94.41048699370604</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>37.64451671937071</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>239.0849317301652</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>58.39471844666272</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2244,64 +2244,64 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2493,37 +2493,37 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2599,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2617,7 +2617,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>208.2638363878124</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>138.8648759280052</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.05241763862477</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,67 +3505,67 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>50.46697834767995</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,49 +3757,49 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3982,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.8126749707503</v>
+        <v>341.0228630172405</v>
       </c>
       <c r="C3" t="n">
-        <v>32.35964568962331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D3" t="n">
-        <v>32.35964568962331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E3" t="n">
-        <v>32.35964568962331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>548.8743632227734</v>
       </c>
       <c r="X3" t="n">
-        <v>582.7883107557723</v>
+        <v>341.0228630172405</v>
       </c>
       <c r="Y3" t="n">
-        <v>375.0280119908184</v>
+        <v>341.0228630172405</v>
       </c>
     </row>
     <row r="4">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.7186438601369</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C5" t="n">
-        <v>241.7186438601369</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D5" t="n">
-        <v>241.7186438601369</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>485.167420504237</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>194.4883050441255</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>194.4883050441255</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.4883050441255</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="7">
@@ -4752,16 +4752,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>485.167420504237</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>485.167420504237</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>485.167420504237</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>485.167420504237</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>485.167420504237</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5083,10 +5083,10 @@
         <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
+        <v>728.6161971483371</v>
+      </c>
+      <c r="Y11" t="n">
         <v>485.167420504237</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5129,10 +5129,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
         <v>19.28114311021272</v>
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.0119685275972</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C15" t="n">
-        <v>158.0119685275972</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D15" t="n">
-        <v>158.0119685275972</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E15" t="n">
-        <v>158.0119685275972</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
         <v>473.4149733950735</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>926.0323911476355</v>
       </c>
       <c r="U15" t="n">
-        <v>634.6640077999109</v>
+        <v>697.8087728840246</v>
       </c>
       <c r="V15" t="n">
-        <v>399.5118995681682</v>
+        <v>697.8087728840246</v>
       </c>
       <c r="W15" t="n">
-        <v>158.0119685275972</v>
+        <v>697.8087728840246</v>
       </c>
       <c r="X15" t="n">
-        <v>158.0119685275972</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.0119685275972</v>
+        <v>489.9572726784918</v>
       </c>
     </row>
     <row r="16">
@@ -5460,7 +5460,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C17" t="n">
-        <v>90.33569644483418</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D17" t="n">
-        <v>90.33569644483418</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E17" t="n">
-        <v>90.33569644483418</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>90.33569644483418</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>90.33569644483418</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
         <v>31.35113235729608</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y17" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,25 +5618,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
         <v>20.03527576299844</v>
@@ -5697,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D20" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="24">
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,22 +6092,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>934.7112791079849</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>706.487660844374</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>471.3355526126313</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>227.8867759685313</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
         <v>20.03527576299844</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>348.0024326625565</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>104.5536560184564</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
         <v>473.4149733950735</v>
@@ -6347,10 +6347,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6411,16 +6411,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>485.167420504237</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>485.167420504237</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>241.7186438601369</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>241.7186438601369</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
         <v>31.35113235729608</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U29" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V29" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>616.0293053032528</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
         <v>20.03527576299844</v>
@@ -6551,16 +6551,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>823.7896040682067</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>616.0293053032528</v>
       </c>
     </row>
     <row r="31">
@@ -6642,22 +6642,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U32" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,13 +6791,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6824,7 +6824,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6882,16 +6882,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,22 +7043,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7128,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y38" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,10 +7262,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>706.487660844374</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>471.3355526126313</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>227.8867759685313</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7368,7 +7368,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7493,16 +7493,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
         <v>781.4136778972854</v>
@@ -7514,25 +7514,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7557,13 +7557,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G44" t="n">
-        <v>274.7999090013961</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W44" t="n">
-        <v>710.516763498309</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X44" t="n">
-        <v>710.516763498309</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7739,40 +7739,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>156.0631229240681</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11387,16 +11387,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>132.1214948397674</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>66.60540087691015</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>264.2941038826066</v>
       </c>
       <c r="E5" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>148.7285191242957</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6629199992865</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>71.10541651401849</v>
+        <v>41.68910512126618</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.0248129136286</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>104.1501914090199</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23402,7 +23402,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,10 +23554,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>233.3417714764288</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>162.5202119754509</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>12.61005143075437</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23700,10 +23700,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>309.459871647713</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>281.0800836691044</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23989,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,10 +24022,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,7 +24220,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>175.044681835909</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24505,7 +24505,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>264.8211809382518</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>207.0389011273226</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>66.90810927547227</v>
       </c>
       <c r="Y30" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24882,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>239.7248545342686</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>210.8693737747013</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>176.6302781386796</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,13 +25210,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>256.7375800297467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>120.394135900372</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>298.773990369733</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,7 +25645,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>243.3324706909737</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25870,25 +25870,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>195.8925415817688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223277</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="J2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="C2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223285</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223283</v>
@@ -26346,16 +26346,16 @@
         <v>91388.36989223283</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50059.87352082101</v>
+        <v>-39063.66396278463</v>
       </c>
       <c r="C6" t="n">
-        <v>30709.5580107267</v>
+        <v>41705.76756876315</v>
       </c>
       <c r="D6" t="n">
-        <v>30709.55801072671</v>
+        <v>41705.76756876312</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="F6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.3675687631</v>
       </c>
       <c r="G6" t="n">
-        <v>64337.15801072672</v>
+        <v>75333.36756876316</v>
       </c>
       <c r="H6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.3675687631</v>
       </c>
       <c r="I6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="J6" t="n">
-        <v>1277.215411620513</v>
+        <v>12273.4249696569</v>
       </c>
       <c r="K6" t="n">
-        <v>64337.15801072672</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="L6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="M6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="N6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="O6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="P6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
     </row>
   </sheetData>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>113.3808631277494</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="O39" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38107,16 +38107,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
